--- a/matlab feature adding/0001results.xlsx
+++ b/matlab feature adding/0001results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10327" uniqueCount="8336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10330" uniqueCount="8336">
   <si>
     <t>file name</t>
   </si>
@@ -25367,8 +25367,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25410,13 +25410,9 @@
         <v>0.95867000000000002</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(F2 = 0,0,9999)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <f t="shared" ref="F2:F65" si="1">WER(B2,C2)</f>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -25432,12 +25428,9 @@
         <v>0.98653000000000002</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -25453,13 +25446,9 @@
         <v>0.98521999999999998</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -25475,13 +25464,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -25497,12 +25482,9 @@
         <v>0.95462000000000002</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -25518,13 +25500,9 @@
         <v>0.96252000000000004</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -25540,13 +25518,9 @@
         <v>0.93910000000000005</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -25562,13 +25536,9 @@
         <v>0.97770999999999997</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
@@ -25584,13 +25554,9 @@
         <v>0.99016999999999999</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -25606,13 +25572,9 @@
         <v>0.94421999999999995</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -25628,13 +25590,9 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -25650,13 +25608,9 @@
         <v>0.96806000000000003</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
+        <v>0.22222</v>
+      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -25672,13 +25626,9 @@
         <v>0.96892</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
@@ -25694,13 +25644,9 @@
         <v>0.98465000000000003</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -25716,13 +25662,9 @@
         <v>0.98629999999999995</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
@@ -25738,13 +25680,9 @@
         <v>0.97860000000000003</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
@@ -25760,13 +25698,9 @@
         <v>0.98016000000000003</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
@@ -25782,13 +25716,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
@@ -25804,13 +25734,9 @@
         <v>0.96335999999999999</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -25826,13 +25752,9 @@
         <v>0.94364000000000003</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
+        <v>0.18182000000000001</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
@@ -25848,13 +25770,9 @@
         <v>0.94547999999999999</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
@@ -25870,13 +25788,9 @@
         <v>0.98382000000000003</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
@@ -25892,13 +25806,9 @@
         <v>0.96699000000000002</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -25914,13 +25824,9 @@
         <v>0.97999000000000003</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+        <v>0.22222</v>
+      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
@@ -25936,13 +25842,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -25958,13 +25860,9 @@
         <v>0.96523999999999999</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -25980,13 +25878,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
@@ -26002,12 +25896,9 @@
         <v>0.95555999999999996</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+        <v>7.1429000000000006E-2</v>
+      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
@@ -26023,13 +25914,9 @@
         <v>0.89844999999999997</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
@@ -26045,13 +25932,9 @@
         <v>0.93118000000000001</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
@@ -26067,13 +25950,9 @@
         <v>0.95528000000000002</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
+        <v>0.13333</v>
+      </c>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
@@ -26089,13 +25968,9 @@
         <v>0.97794999999999999</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
@@ -26111,13 +25986,9 @@
         <v>0.95499000000000001</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
@@ -26133,13 +26004,9 @@
         <v>0.96631999999999996</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
@@ -26155,13 +26022,9 @@
         <v>0.98436000000000001</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
@@ -26177,13 +26040,9 @@
         <v>0.97452000000000005</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
@@ -26199,13 +26058,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
@@ -26221,13 +26076,9 @@
         <v>0.97055000000000002</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
@@ -26243,13 +26094,9 @@
         <v>0.92571999999999999</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
@@ -26265,13 +26112,9 @@
         <v>0.91690000000000005</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
@@ -26287,13 +26130,9 @@
         <v>0.98019000000000001</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
@@ -26309,13 +26148,9 @@
         <v>0.95355999999999996</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
@@ -26331,13 +26166,9 @@
         <v>0.94520000000000004</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
@@ -26353,13 +26184,9 @@
         <v>0.97206999999999999</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
+        <v>0.22222</v>
+      </c>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
@@ -26375,13 +26202,9 @@
         <v>0.88456999999999997</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F46" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
@@ -26397,13 +26220,9 @@
         <v>0.98423000000000005</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F47" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
@@ -26419,13 +26238,9 @@
         <v>0.97275</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F48" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
@@ -26441,13 +26256,9 @@
         <v>0.98917999999999995</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
@@ -26463,13 +26274,9 @@
         <v>0.97648999999999997</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F50" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
@@ -26485,13 +26292,9 @@
         <v>0.93698999999999999</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F51" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
@@ -26507,13 +26310,9 @@
         <v>0.98816999999999999</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
@@ -26529,13 +26328,9 @@
         <v>0.98570999999999998</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F53" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
@@ -26551,13 +26346,9 @@
         <v>0.97640000000000005</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
@@ -26573,13 +26364,9 @@
         <v>0.96721999999999997</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
@@ -26595,13 +26382,9 @@
         <v>0.98333999999999999</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
@@ -26617,13 +26400,9 @@
         <v>0.98519000000000001</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
@@ -26639,13 +26418,9 @@
         <v>0.97075</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
+        <v>0.15384999999999999</v>
+      </c>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
@@ -26661,13 +26436,9 @@
         <v>0.82767999999999997</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F59" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
@@ -26683,13 +26454,9 @@
         <v>0.98580000000000001</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>6.6667000000000004E-2</v>
+      </c>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
@@ -26705,13 +26472,9 @@
         <v>0.98431999999999997</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
@@ -26727,13 +26490,9 @@
         <v>0.84362999999999999</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F62" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
@@ -26749,13 +26508,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
@@ -26771,13 +26526,9 @@
         <v>0.90564999999999996</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
-        <v>9999</v>
-      </c>
-      <c r="F64" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
@@ -26793,13 +26544,9 @@
         <v>0.98331000000000002</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F65" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
@@ -26815,13 +26562,9 @@
         <v>0.93711999999999995</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(F66 = 0,0,9999)</f>
-        <v>9999</v>
-      </c>
-      <c r="F66" s="1">
-        <f t="shared" ref="F66:F129" si="3">WER(B66,C66)</f>
-        <v>43</v>
-      </c>
+        <v>0.27272999999999997</v>
+      </c>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
@@ -26837,13 +26580,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F67" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
@@ -26859,13 +26598,9 @@
         <v>0.98580000000000001</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
@@ -26881,13 +26616,9 @@
         <v>0.96399999999999997</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F69" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
@@ -26903,13 +26634,9 @@
         <v>0.96155000000000002</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F70" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
@@ -26925,13 +26652,9 @@
         <v>0.97116999999999998</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
@@ -26947,13 +26670,9 @@
         <v>0.98575000000000002</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F72" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
@@ -26969,13 +26688,9 @@
         <v>0.98575000000000002</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
@@ -26991,13 +26706,9 @@
         <v>0.95033000000000001</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F74" s="1">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
@@ -27013,13 +26724,9 @@
         <v>0.97202999999999995</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
@@ -27035,13 +26742,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
@@ -27057,13 +26760,9 @@
         <v>0.98170999999999997</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F77" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
@@ -27079,13 +26778,9 @@
         <v>0.94896999999999998</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
@@ -27101,13 +26796,9 @@
         <v>0.98743999999999998</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
@@ -27123,13 +26814,9 @@
         <v>0.97516000000000003</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F80" s="1">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
+        <v>0.21429000000000001</v>
+      </c>
+      <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
@@ -27145,13 +26832,9 @@
         <v>0.94594</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F81" s="1">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
@@ -27167,13 +26850,9 @@
         <v>0.95992999999999995</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F82" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
@@ -27189,13 +26868,9 @@
         <v>0.97789000000000004</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
@@ -27211,13 +26886,9 @@
         <v>0.95952999999999999</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F84" s="1">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
@@ -27233,13 +26904,9 @@
         <v>0.89583000000000002</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F85" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
@@ -27255,13 +26922,9 @@
         <v>0.87672000000000005</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F86" s="1">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
+        <v>0.28571000000000002</v>
+      </c>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
@@ -27277,13 +26940,9 @@
         <v>0.95030000000000003</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F87" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>7.1429000000000006E-2</v>
+      </c>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
@@ -27299,13 +26958,9 @@
         <v>0.97255999999999998</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F88" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
@@ -27321,13 +26976,9 @@
         <v>0.98431999999999997</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F89" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
@@ -27343,13 +26994,9 @@
         <v>0.98316999999999999</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F90" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
@@ -27365,13 +27012,9 @@
         <v>0.93786000000000003</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F91" s="1">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
@@ -27387,13 +27030,9 @@
         <v>0.98580000000000001</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
@@ -27409,13 +27048,9 @@
         <v>0.93564000000000003</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F93" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
@@ -27431,13 +27066,9 @@
         <v>0.98602999999999996</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F94" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
@@ -27453,13 +27084,9 @@
         <v>0.97704999999999997</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F95" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
@@ -27475,13 +27102,9 @@
         <v>0.91547000000000001</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F96" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
@@ -27497,13 +27120,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F97" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
@@ -27519,13 +27138,9 @@
         <v>0.95150000000000001</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F98" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
@@ -27541,13 +27156,9 @@
         <v>0.97011000000000003</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F99" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
@@ -27563,13 +27174,9 @@
         <v>0.98575000000000002</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F100" s="1">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
+        <v>7.6923000000000005E-2</v>
+      </c>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
@@ -27585,13 +27192,9 @@
         <v>0.92732999999999999</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F101" s="1">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
@@ -27607,13 +27210,9 @@
         <v>0.89114000000000004</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F102" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
@@ -27629,13 +27228,9 @@
         <v>0.88358000000000003</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F103" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+        <v>6.6667000000000004E-2</v>
+      </c>
+      <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
@@ -27651,13 +27246,9 @@
         <v>0.96292</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F104" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
@@ -27673,13 +27264,9 @@
         <v>0.97377000000000002</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F105" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
@@ -27695,13 +27282,9 @@
         <v>0.98285</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F106" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
@@ -27717,13 +27300,9 @@
         <v>0.97047000000000005</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F107" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
@@ -27739,13 +27318,9 @@
         <v>0.98055999999999999</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F108" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
@@ -27761,13 +27336,9 @@
         <v>0.90810000000000002</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F109" s="1">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
+        <v>6.6667000000000004E-2</v>
+      </c>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
@@ -27783,13 +27354,9 @@
         <v>0.97953000000000001</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F110" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
@@ -27805,13 +27372,9 @@
         <v>0.94298000000000004</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F111" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
@@ -27827,13 +27390,9 @@
         <v>0.98407</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F112" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
@@ -27849,13 +27408,9 @@
         <v>0.83755000000000002</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F113" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
@@ -27871,13 +27426,9 @@
         <v>0.98348000000000002</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F114" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
@@ -27893,13 +27444,9 @@
         <v>0.98509999999999998</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F115" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F115" s="1"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
@@ -27915,13 +27462,9 @@
         <v>0.98851</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F116" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F116" s="1"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
@@ -27937,13 +27480,9 @@
         <v>0.93413999999999997</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F117" s="1">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
@@ -27959,13 +27498,9 @@
         <v>0.97872999999999999</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F118" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
@@ -27981,13 +27516,9 @@
         <v>0.92281999999999997</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F119" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
+        <v>0.22222</v>
+      </c>
+      <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
@@ -28003,13 +27534,9 @@
         <v>0.97846999999999995</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F120" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
@@ -28025,13 +27552,9 @@
         <v>0.85912999999999995</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F121" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="F121" s="1"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
@@ -28047,13 +27570,9 @@
         <v>0.75709000000000004</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F122" s="1">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F122" s="1"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
@@ -28069,13 +27588,9 @@
         <v>0.98392999999999997</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F123" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
@@ -28091,13 +27606,9 @@
         <v>0.74731999999999998</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
-        <v>9999</v>
-      </c>
-      <c r="F124" s="1">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
@@ -28113,13 +27624,9 @@
         <v>0.97604999999999997</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F125" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="F125" s="1"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
@@ -28135,13 +27642,9 @@
         <v>0.97860999999999998</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F126" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
@@ -28157,13 +27660,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F127" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
@@ -28179,13 +27678,9 @@
         <v>0.97751999999999994</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F128" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F128" s="1"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
@@ -28201,13 +27696,9 @@
         <v>0.96589999999999998</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F129" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F129" s="1"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
@@ -28223,13 +27714,9 @@
         <v>0.95584000000000002</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(F130 = 0,0,9999)</f>
         <v>0</v>
       </c>
-      <c r="F130" s="1">
-        <f t="shared" ref="F130:F193" si="5">WER(B130,C130)</f>
-        <v>0</v>
-      </c>
+      <c r="F130" s="1"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
@@ -28245,13 +27732,9 @@
         <v>0.95181000000000004</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F131" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F131" s="1"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
@@ -28267,13 +27750,9 @@
         <v>0.92706999999999995</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F132" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
@@ -28289,13 +27768,9 @@
         <v>0.97553000000000001</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F133" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
@@ -28311,13 +27786,9 @@
         <v>0.91757</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F134" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>7.6923000000000005E-2</v>
+      </c>
+      <c r="F134" s="1"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
@@ -28333,13 +27804,9 @@
         <v>0.91261999999999999</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F135" s="1">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
+        <v>0.26667000000000002</v>
+      </c>
+      <c r="F135" s="1"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
@@ -28355,13 +27822,9 @@
         <v>0.88883000000000001</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F136" s="1">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
@@ -28377,13 +27840,9 @@
         <v>0.97648999999999997</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F137" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F137" s="1"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
@@ -28399,13 +27858,9 @@
         <v>0.96909000000000001</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F138" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
@@ -28421,13 +27876,9 @@
         <v>0.96096000000000004</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F139" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F139" s="1"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
@@ -28443,13 +27894,9 @@
         <v>0.97591000000000006</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F140" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F140" s="1"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
@@ -28465,13 +27912,9 @@
         <v>0.95023999999999997</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F141" s="1">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="F141" s="1"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
@@ -28487,13 +27930,9 @@
         <v>0.98231999999999997</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F142" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F142" s="1"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
@@ -28509,13 +27948,9 @@
         <v>0.93857999999999997</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F143" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
@@ -28531,13 +27966,9 @@
         <v>0.97521000000000002</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F144" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
@@ -28553,13 +27984,9 @@
         <v>0.93967999999999996</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F145" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F145" s="1"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
@@ -28575,13 +28002,9 @@
         <v>0.98411000000000004</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F146" s="1">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F146" s="1"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
@@ -28597,13 +28020,9 @@
         <v>0.96462999999999999</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F147" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
@@ -28619,13 +28038,9 @@
         <v>0.95769000000000004</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F148" s="1">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F148" s="1"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
@@ -28641,13 +28056,9 @@
         <v>0.96553</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F149" s="1">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="F149" s="1"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
@@ -28663,13 +28074,9 @@
         <v>0.97541</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F150" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F150" s="1"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
@@ -28685,13 +28092,9 @@
         <v>0.81089</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F151" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+        <v>6.6667000000000004E-2</v>
+      </c>
+      <c r="F151" s="1"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
@@ -28707,13 +28110,9 @@
         <v>0.96531</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F152" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F152" s="1"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
@@ -28729,13 +28128,9 @@
         <v>0.96826999999999996</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F153" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F153" s="1"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
@@ -28751,13 +28146,9 @@
         <v>0.96872000000000003</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F154" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F154" s="1"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
@@ -28773,13 +28164,9 @@
         <v>0.83296000000000003</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F155" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F155" s="1"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
@@ -28795,13 +28182,9 @@
         <v>0.95318999999999998</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F156" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F156" s="1"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
@@ -28817,13 +28200,9 @@
         <v>0.97994000000000003</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F157" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F157" s="1"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
@@ -28839,13 +28218,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F158" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>6.6667000000000004E-2</v>
+      </c>
+      <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
@@ -28861,13 +28236,9 @@
         <v>0.95698000000000005</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F159" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F159" s="1"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
@@ -28883,13 +28254,9 @@
         <v>0.97511999999999999</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F160" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F160" s="1"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
@@ -28905,13 +28272,9 @@
         <v>0.96545999999999998</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F161" s="1">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
+        <v>6.6667000000000004E-2</v>
+      </c>
+      <c r="F161" s="1"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
@@ -28927,13 +28290,9 @@
         <v>0.92369000000000001</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F162" s="1">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
+        <v>0.18182000000000001</v>
+      </c>
+      <c r="F162" s="1"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
@@ -28949,13 +28308,9 @@
         <v>0.90232999999999997</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F163" s="1">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F163" s="1"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
@@ -28971,13 +28326,9 @@
         <v>0.98524999999999996</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F164" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F164" s="1"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
@@ -28993,13 +28344,9 @@
         <v>0.91774</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F165" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F165" s="1"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
@@ -29015,13 +28362,9 @@
         <v>0.98082999999999998</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F166" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F166" s="1"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
@@ -29037,13 +28380,9 @@
         <v>0.97724999999999995</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F167" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F167" s="1"/>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
@@ -29059,13 +28398,9 @@
         <v>0.98485999999999996</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F168" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F168" s="1"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
@@ -29081,13 +28416,9 @@
         <v>0.88866999999999996</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F169" s="1">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F169" s="1"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
@@ -29103,13 +28434,9 @@
         <v>0.98601000000000005</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F170" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
@@ -29125,13 +28452,9 @@
         <v>0.95421</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F171" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F171" s="1"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
@@ -29147,13 +28470,9 @@
         <v>0.87007000000000001</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F172" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="F172" s="1"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
@@ -29169,13 +28488,9 @@
         <v>0.94760999999999995</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F173" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F173" s="1"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
@@ -29191,13 +28506,9 @@
         <v>0.98131000000000002</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F174" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="F174" s="1"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
@@ -29213,13 +28524,9 @@
         <v>0.84258999999999995</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F175" s="1">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F175" s="1"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
@@ -29235,13 +28542,9 @@
         <v>0.98155999999999999</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F176" s="1">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F176" s="1"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
@@ -29257,13 +28560,9 @@
         <v>0.98684000000000005</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F177" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F177" s="1"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
@@ -29279,13 +28578,9 @@
         <v>0.98434999999999995</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F178" s="1">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F178" s="1"/>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
@@ -29301,13 +28596,9 @@
         <v>0.98755999999999999</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F179" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F179" s="1"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
@@ -29323,13 +28614,9 @@
         <v>0.98450000000000004</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F180" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F180" s="1"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
@@ -29345,13 +28632,9 @@
         <v>0.95476000000000005</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F181" s="1">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
+        <v>0.18182000000000001</v>
+      </c>
+      <c r="F181" s="1"/>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
@@ -29367,13 +28650,9 @@
         <v>0.93752000000000002</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
-        <v>9999</v>
-      </c>
-      <c r="F182" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+        <v>0.15384999999999999</v>
+      </c>
+      <c r="F182" s="1"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
@@ -29389,13 +28668,9 @@
         <v>0.97950000000000004</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F183" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F183" s="1"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
@@ -29411,13 +28686,9 @@
         <v>0.97272000000000003</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F184" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F184" s="1"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
@@ -29433,13 +28704,9 @@
         <v>0.94218999999999997</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F185" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F185" s="1"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
@@ -29455,13 +28722,9 @@
         <v>0.97153999999999996</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F186" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F186" s="1"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
@@ -29477,13 +28740,9 @@
         <v>0.98353999999999997</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F187" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F187" s="1"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
@@ -29499,13 +28758,9 @@
         <v>0.96440999999999999</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F188" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F188" s="1"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
@@ -29521,13 +28776,9 @@
         <v>0.92022000000000004</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F189" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F189" s="1"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
@@ -29543,13 +28794,9 @@
         <v>0.96057000000000003</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F190" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F190" s="1"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
@@ -29565,13 +28812,9 @@
         <v>0.98299000000000003</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F191" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="F191" s="1"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
@@ -29587,13 +28830,9 @@
         <v>0.97679000000000005</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F192" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F192" s="1"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
@@ -29609,13 +28848,9 @@
         <v>0.98272999999999999</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F193" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F193" s="1"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
@@ -29631,13 +28866,9 @@
         <v>0.89512000000000003</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(F194 = 0,0,9999)</f>
         <v>0</v>
       </c>
-      <c r="F194" s="1">
-        <f t="shared" ref="F194:F257" si="7">WER(B194,C194)</f>
-        <v>0</v>
-      </c>
+      <c r="F194" s="1"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
@@ -29653,13 +28884,9 @@
         <v>0.90076000000000001</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F195" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F195" s="1"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
@@ -29675,13 +28902,9 @@
         <v>0.97992000000000001</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F196" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F196" s="1"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
@@ -29697,13 +28920,9 @@
         <v>0.98165999999999998</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F197" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F197" s="1"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
@@ -29719,13 +28938,9 @@
         <v>0.87153999999999998</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F198" s="1">
-        <f t="shared" si="7"/>
-        <v>47</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="F198" s="1"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
@@ -29741,13 +28956,9 @@
         <v>0.88707999999999998</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F199" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F199" s="1"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
@@ -29763,13 +28974,9 @@
         <v>0.85223000000000004</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F200" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F200" s="1"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
@@ -29785,13 +28992,9 @@
         <v>0.96904000000000001</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F201" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F201" s="1"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
@@ -29807,13 +29010,9 @@
         <v>0.89954999999999996</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F202" s="1">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
+        <v>0.28571000000000002</v>
+      </c>
+      <c r="F202" s="1"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
@@ -29829,13 +29028,9 @@
         <v>0.79027999999999998</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F203" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F203" s="1"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
@@ -29851,13 +29046,9 @@
         <v>0.97097</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F204" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F204" s="1"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
@@ -29873,13 +29064,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F205" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F205" s="1"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
@@ -29895,13 +29082,9 @@
         <v>0.90356999999999998</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F206" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F206" s="1"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
@@ -29917,13 +29100,9 @@
         <v>0.96991000000000005</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F207" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F207" s="1"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
@@ -29939,13 +29118,9 @@
         <v>0.83413999999999999</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F208" s="1">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F208" s="1"/>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
@@ -29961,13 +29136,9 @@
         <v>0.97833000000000003</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F209" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F209" s="1"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
@@ -29983,13 +29154,9 @@
         <v>0.93567</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F210" s="1">
-        <f t="shared" si="7"/>
-        <v>46</v>
-      </c>
+        <v>0.28571000000000002</v>
+      </c>
+      <c r="F210" s="1"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
@@ -30005,13 +29172,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F211" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F211" s="1"/>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
@@ -30027,13 +29190,9 @@
         <v>0.89214000000000004</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F212" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F212" s="1"/>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
@@ -30049,13 +29208,9 @@
         <v>0.88866999999999996</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F213" s="1">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F213" s="1"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
@@ -30071,13 +29226,9 @@
         <v>0.97968999999999995</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F214" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F214" s="1"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
@@ -30093,13 +29244,9 @@
         <v>0.91312000000000004</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F215" s="1">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
+        <v>0.18182000000000001</v>
+      </c>
+      <c r="F215" s="1"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
@@ -30115,13 +29262,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F216" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F216" s="1"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
@@ -30137,13 +29280,9 @@
         <v>0.95472999999999997</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F217" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F217" s="1"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
@@ -30159,13 +29298,9 @@
         <v>0.96035000000000004</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F218" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F218" s="1"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
@@ -30181,13 +29316,9 @@
         <v>0.91747000000000001</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F219" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F219" s="1"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
@@ -30203,13 +29334,9 @@
         <v>0.97313000000000005</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F220" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F220" s="1"/>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
@@ -30225,13 +29352,9 @@
         <v>0.96458999999999995</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F221" s="1">
-        <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F221" s="1"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
@@ -30247,13 +29370,9 @@
         <v>0.92198999999999998</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F222" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F222" s="1"/>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
@@ -30269,13 +29388,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F223" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F223" s="1"/>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
@@ -30291,13 +29406,9 @@
         <v>0.98270999999999997</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F224" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F224" s="1"/>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
@@ -30313,13 +29424,9 @@
         <v>0.85441</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F225" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F225" s="1"/>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
@@ -30335,13 +29442,9 @@
         <v>0.90959000000000001</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F226" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F226" s="1"/>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
@@ -30357,13 +29460,9 @@
         <v>0.94018000000000002</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F227" s="1">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F227" s="1"/>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
@@ -30379,13 +29478,9 @@
         <v>0.97855999999999999</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F228" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F228" s="1"/>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
@@ -30401,13 +29496,9 @@
         <v>0.97150000000000003</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F229" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F229" s="1"/>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
@@ -30423,13 +29514,9 @@
         <v>0.96801999999999999</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F230" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F230" s="1"/>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
@@ -30445,13 +29532,9 @@
         <v>0.93050999999999995</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F231" s="1">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
+        <v>0.22222</v>
+      </c>
+      <c r="F231" s="1"/>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
@@ -30467,13 +29550,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F232" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F232" s="1"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
@@ -30489,13 +29568,9 @@
         <v>0.97014999999999996</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F233" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F233" s="1"/>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
@@ -30511,13 +29586,9 @@
         <v>0.98824000000000001</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F234" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F234" s="1"/>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
@@ -30533,13 +29604,9 @@
         <v>0.98363</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F235" s="1">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F235" s="1"/>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
@@ -30555,13 +29622,9 @@
         <v>0.93786000000000003</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F236" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>7.6923000000000005E-2</v>
+      </c>
+      <c r="F236" s="1"/>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
@@ -30577,13 +29640,9 @@
         <v>0.96438000000000001</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F237" s="1">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
+        <v>0.15384999999999999</v>
+      </c>
+      <c r="F237" s="1"/>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
@@ -30599,13 +29658,9 @@
         <v>0.91864999999999997</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F238" s="1">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F238" s="1"/>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
@@ -30621,13 +29676,9 @@
         <v>0.97758</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F239" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F239" s="1"/>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
@@ -30643,13 +29694,9 @@
         <v>0.98468999999999995</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F240" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F240" s="1"/>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
@@ -30665,13 +29712,9 @@
         <v>0.98028999999999999</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F241" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F241" s="1"/>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
@@ -30687,13 +29730,9 @@
         <v>0.91769000000000001</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F242" s="1">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
+        <v>0.22222</v>
+      </c>
+      <c r="F242" s="1"/>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
@@ -30709,13 +29748,9 @@
         <v>0.93811999999999995</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F243" s="1">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
+        <v>0.38462000000000002</v>
+      </c>
+      <c r="F243" s="1"/>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
@@ -30731,13 +29766,9 @@
         <v>0.96431</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F244" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F244" s="1"/>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
@@ -30753,13 +29784,9 @@
         <v>0.80661000000000005</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F245" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F245" s="1"/>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
@@ -30775,13 +29802,9 @@
         <v>0.90881999999999996</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F246" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F246" s="1"/>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
@@ -30797,13 +29820,9 @@
         <v>0.95001999999999998</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F247" s="1">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F247" s="1"/>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
@@ -30819,13 +29838,9 @@
         <v>0.95333999999999997</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F248" s="1">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F248" s="1"/>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
@@ -30841,13 +29856,9 @@
         <v>0.96167999999999998</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F249" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F249" s="1"/>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
@@ -30863,13 +29874,9 @@
         <v>0.96118000000000003</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F250" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>7.6923000000000005E-2</v>
+      </c>
+      <c r="F250" s="1"/>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
@@ -30885,13 +29892,9 @@
         <v>0.97570999999999997</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F251" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F251" s="1"/>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
@@ -30907,13 +29910,9 @@
         <v>0.95103000000000004</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
-        <v>9999</v>
-      </c>
-      <c r="F252" s="1">
-        <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F252" s="1"/>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
@@ -30929,13 +29928,9 @@
         <v>0.98294999999999999</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F253" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F253" s="1"/>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
@@ -30951,13 +29946,9 @@
         <v>0.97933999999999999</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F254" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F254" s="1"/>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
@@ -30973,13 +29964,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F255" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F255" s="1"/>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
@@ -30995,13 +29982,9 @@
         <v>0.94077</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F256" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F256" s="1"/>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
@@ -31017,13 +30000,9 @@
         <v>0.95813999999999999</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F257" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F257" s="1"/>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
@@ -31039,13 +30018,9 @@
         <v>0.93330000000000002</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(F258 = 0,0,9999)</f>
-        <v>0</v>
-      </c>
-      <c r="F258" s="1">
-        <f t="shared" ref="F258:F321" si="9">WER(B258,C258)</f>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F258" s="1"/>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
@@ -31061,13 +30036,9 @@
         <v>0.95182</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F259" s="1">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F259" s="1"/>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
@@ -31083,13 +30054,9 @@
         <v>0.94796999999999998</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F260" s="1">
-        <f t="shared" si="9"/>
-        <v>39</v>
-      </c>
+        <v>0.15384999999999999</v>
+      </c>
+      <c r="F260" s="1"/>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
@@ -31105,13 +30072,9 @@
         <v>0.87378999999999996</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F261" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F261" s="1"/>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
@@ -31127,13 +30090,9 @@
         <v>0.96457000000000004</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F262" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F262" s="1"/>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
@@ -31149,13 +30108,9 @@
         <v>0.87641000000000002</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F263" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F263" s="1"/>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
@@ -31171,13 +30126,9 @@
         <v>0.93281999999999998</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F264" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
+        <v>0.18182000000000001</v>
+      </c>
+      <c r="F264" s="1"/>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
@@ -31193,13 +30144,9 @@
         <v>0.97660000000000002</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F265" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F265" s="1"/>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
@@ -31215,13 +30162,9 @@
         <v>0.93108000000000002</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F266" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F266" s="1"/>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
@@ -31237,13 +30180,9 @@
         <v>0.84079999999999999</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F267" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F267" s="1"/>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
@@ -31259,13 +30198,9 @@
         <v>0.95711999999999997</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F268" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F268" s="1"/>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
@@ -31281,13 +30216,9 @@
         <v>0.96126</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F269" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F269" s="1"/>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
@@ -31303,13 +30234,9 @@
         <v>0.96353999999999995</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F270" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F270" s="1"/>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
@@ -31325,13 +30252,9 @@
         <v>0.98351</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F271" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F271" s="1"/>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
@@ -31347,13 +30270,9 @@
         <v>0.95933000000000002</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F272" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F272" s="1"/>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
@@ -31369,13 +30288,9 @@
         <v>0.98087000000000002</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F273" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F273" s="1"/>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
@@ -31391,13 +30306,9 @@
         <v>0.97385999999999995</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F274" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F274" s="1"/>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
@@ -31413,13 +30324,9 @@
         <v>0.95199</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F275" s="1">
-        <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="F275" s="1"/>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
@@ -31435,13 +30342,9 @@
         <v>0.96462999999999999</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F276" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F276" s="1"/>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
@@ -31457,13 +30360,9 @@
         <v>0.94523999999999997</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F277" s="1">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="F277" s="1"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
@@ -31479,13 +30378,9 @@
         <v>0.98612999999999995</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F278" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F278" s="1"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
@@ -31501,13 +30396,9 @@
         <v>0.98458000000000001</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F279" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F279" s="1"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
@@ -31523,13 +30414,9 @@
         <v>0.97980999999999996</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F280" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F280" s="1"/>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
@@ -31545,13 +30432,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F281" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F281" s="1"/>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
@@ -31567,13 +30450,9 @@
         <v>0.98680999999999996</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F282" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F282" s="1"/>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
@@ -31589,13 +30468,9 @@
         <v>0.89659999999999995</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F283" s="1">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F283" s="1"/>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
@@ -31611,13 +30486,9 @@
         <v>0.95220000000000005</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F284" s="1">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
+        <v>0.42857000000000001</v>
+      </c>
+      <c r="F284" s="1"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
@@ -31633,13 +30504,9 @@
         <v>0.89595000000000002</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F285" s="1">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F285" s="1"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
@@ -31655,13 +30522,9 @@
         <v>0.98943999999999999</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F286" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F286" s="1"/>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
@@ -31677,13 +30540,9 @@
         <v>0.98279000000000005</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F287" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F287" s="1"/>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
@@ -31699,13 +30558,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F288" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F288" s="1"/>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
@@ -31721,13 +30576,9 @@
         <v>0.97370999999999996</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F289" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F289" s="1"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
@@ -31743,13 +30594,9 @@
         <v>0.98475999999999997</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F290" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="F290" s="1"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
@@ -31765,13 +30612,9 @@
         <v>0.97672999999999999</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F291" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F291" s="1"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
@@ -31787,13 +30630,9 @@
         <v>0.97116000000000002</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F292" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F292" s="1"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
@@ -31809,13 +30648,9 @@
         <v>0.86084000000000005</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F293" s="1">
-        <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F293" s="1"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
@@ -31831,13 +30666,9 @@
         <v>0.95538000000000001</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F294" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F294" s="1"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
@@ -31853,13 +30684,9 @@
         <v>0.94193000000000005</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F295" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F295" s="1"/>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
@@ -31875,13 +30702,9 @@
         <v>0.95981000000000005</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F296" s="1">
-        <f t="shared" si="9"/>
-        <v>47</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F296" s="1"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
@@ -31897,13 +30720,9 @@
         <v>0.95835000000000004</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F297" s="1">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="F297" s="1"/>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
@@ -31919,13 +30738,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F298" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F298" s="1"/>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
@@ -31941,13 +30756,9 @@
         <v>0.88473999999999997</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F299" s="1">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F299" s="1"/>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
@@ -31963,13 +30774,9 @@
         <v>0.97521000000000002</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F300" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F300" s="1"/>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
@@ -31985,13 +30792,9 @@
         <v>0.98821000000000003</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F301" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F301" s="1"/>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
@@ -32007,13 +30810,9 @@
         <v>0.96540000000000004</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F302" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F302" s="1"/>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
@@ -32029,13 +30828,9 @@
         <v>0.97155000000000002</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F303" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F303" s="1"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
@@ -32051,13 +30846,9 @@
         <v>0.96621999999999997</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F304" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F304" s="1"/>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
@@ -32073,13 +30864,9 @@
         <v>0.98404999999999998</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F305" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F305" s="1"/>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
@@ -32095,13 +30882,9 @@
         <v>0.98153000000000001</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F306" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F306" s="1"/>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
@@ -32117,13 +30900,9 @@
         <v>0.87368000000000001</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F307" s="1">
-        <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
+        <v>0.28571000000000002</v>
+      </c>
+      <c r="F307" s="1"/>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
@@ -32139,13 +30918,9 @@
         <v>0.96179000000000003</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F308" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F308" s="1"/>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
@@ -32161,13 +30936,9 @@
         <v>0.96323000000000003</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F309" s="1">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F309" s="1"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
@@ -32183,13 +30954,9 @@
         <v>0.98751999999999995</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F310" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F310" s="1"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
@@ -32205,13 +30972,9 @@
         <v>0.97965000000000002</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F311" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F311" s="1"/>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
@@ -32227,13 +30990,9 @@
         <v>0.96579000000000004</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F312" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F312" s="1"/>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
@@ -32249,13 +31008,9 @@
         <v>0.96426999999999996</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F313" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F313" s="1"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
@@ -32271,13 +31026,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F314" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F314" s="1"/>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
@@ -32293,13 +31044,9 @@
         <v>0.98409000000000002</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F315" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F315" s="1"/>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
@@ -32315,13 +31062,9 @@
         <v>0.96819</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F316" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F316" s="1"/>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" t="s">
@@ -32337,13 +31080,9 @@
         <v>0.98207</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F317" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="F317" s="1"/>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" t="s">
@@ -32359,13 +31098,9 @@
         <v>0.96530000000000005</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F318" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F318" s="1"/>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" t="s">
@@ -32381,13 +31116,9 @@
         <v>0.89642999999999995</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F319" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F319" s="1"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
@@ -32403,13 +31134,9 @@
         <v>0.88549</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
-        <v>9999</v>
-      </c>
-      <c r="F320" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F320" s="1"/>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" t="s">
@@ -32425,13 +31152,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F321" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F321" s="1"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" t="s">
@@ -32447,13 +31170,9 @@
         <v>0.97358</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(F322 = 0,0,9999)</f>
-        <v>0</v>
-      </c>
-      <c r="F322" s="1">
-        <f t="shared" ref="F322:F385" si="11">WER(B322,C322)</f>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F322" s="1"/>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" t="s">
@@ -32469,13 +31188,9 @@
         <v>0.93972999999999995</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F323" s="1">
-        <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F323" s="1"/>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" t="s">
@@ -32491,13 +31206,9 @@
         <v>0.96799000000000002</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F324" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F324" s="1"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" t="s">
@@ -32513,13 +31224,9 @@
         <v>0.97192000000000001</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F325" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F325" s="1"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" t="s">
@@ -32535,13 +31242,9 @@
         <v>0.97424999999999995</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F326" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F326" s="1"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" t="s">
@@ -32557,13 +31260,9 @@
         <v>0.93293000000000004</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F327" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F327" s="1"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" t="s">
@@ -32579,13 +31278,9 @@
         <v>0.97858000000000001</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F328" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F328" s="1"/>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" t="s">
@@ -32601,13 +31296,9 @@
         <v>0.93279999999999996</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F329" s="1">
-        <f t="shared" si="11"/>
-        <v>59</v>
-      </c>
+        <v>0.15384999999999999</v>
+      </c>
+      <c r="F329" s="1"/>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" t="s">
@@ -32623,13 +31314,9 @@
         <v>0.94262999999999997</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F330" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F330" s="1"/>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" t="s">
@@ -32645,13 +31332,9 @@
         <v>0.96736</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F331" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>7.1429000000000006E-2</v>
+      </c>
+      <c r="F331" s="1"/>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" t="s">
@@ -32667,13 +31350,9 @@
         <v>0.93220999999999998</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F332" s="1">
-        <f t="shared" si="11"/>
-        <v>47</v>
-      </c>
+        <v>0.23077</v>
+      </c>
+      <c r="F332" s="1"/>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" t="s">
@@ -32689,13 +31368,9 @@
         <v>0.88597999999999999</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F333" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F333" s="1"/>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" t="s">
@@ -32711,13 +31386,9 @@
         <v>0.97767999999999999</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F334" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F334" s="1"/>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
@@ -32733,13 +31404,9 @@
         <v>0.96348</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F335" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F335" s="1"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
@@ -32755,13 +31422,9 @@
         <v>0.98968999999999996</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F336" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F336" s="1"/>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" t="s">
@@ -32777,13 +31440,9 @@
         <v>0.98379000000000005</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F337" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F337" s="1"/>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" t="s">
@@ -32799,13 +31458,9 @@
         <v>0.84323000000000004</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F338" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
+        <v>0.18182000000000001</v>
+      </c>
+      <c r="F338" s="1"/>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" t="s">
@@ -32821,13 +31476,9 @@
         <v>0.93644000000000005</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F339" s="1">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F339" s="1"/>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" t="s">
@@ -32843,13 +31494,9 @@
         <v>0.88183999999999996</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F340" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F340" s="1"/>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" t="s">
@@ -32865,13 +31512,9 @@
         <v>0.98741000000000001</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F341" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F341" s="1"/>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" t="s">
@@ -32887,13 +31530,9 @@
         <v>0.98182000000000003</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F342" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F342" s="1"/>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" t="s">
@@ -32909,13 +31548,9 @@
         <v>0.98341000000000001</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F343" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="F343" s="1"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" t="s">
@@ -32931,13 +31566,9 @@
         <v>0.94498000000000004</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F344" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+        <v>7.1429000000000006E-2</v>
+      </c>
+      <c r="F344" s="1"/>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" t="s">
@@ -32953,13 +31584,9 @@
         <v>0.86806000000000005</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F345" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F345" s="1"/>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" t="s">
@@ -32975,13 +31602,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F346" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F346" s="1"/>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" t="s">
@@ -32997,13 +31620,9 @@
         <v>0.90920000000000001</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F347" s="1">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F347" s="1"/>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" t="s">
@@ -33019,13 +31638,9 @@
         <v>0.94899</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F348" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F348" s="1"/>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" t="s">
@@ -33041,13 +31656,9 @@
         <v>0.93827000000000005</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F349" s="1">
-        <f t="shared" si="11"/>
-        <v>29</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F349" s="1"/>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" t="s">
@@ -33063,13 +31674,9 @@
         <v>0.92710999999999999</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F350" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F350" s="1"/>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" t="s">
@@ -33085,13 +31692,9 @@
         <v>0.96711999999999998</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F351" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F351" s="1"/>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" t="s">
@@ -33107,13 +31710,9 @@
         <v>0.95828000000000002</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F352" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F352" s="1"/>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" t="s">
@@ -33129,13 +31728,9 @@
         <v>0.86014999999999997</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F353" s="1">
-        <f t="shared" si="11"/>
-        <v>42</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F353" s="1"/>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" t="s">
@@ -33151,13 +31746,9 @@
         <v>0.86348999999999998</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F354" s="1">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F354" s="1"/>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" t="s">
@@ -33173,13 +31764,9 @@
         <v>0.90712000000000004</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F355" s="1">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F355" s="1"/>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" t="s">
@@ -33195,13 +31782,9 @@
         <v>0.94596999999999998</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F356" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F356" s="1"/>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" t="s">
@@ -33217,13 +31800,9 @@
         <v>0.86523000000000005</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F357" s="1">
-        <f t="shared" si="11"/>
-        <v>43</v>
-      </c>
+        <v>0.55556000000000005</v>
+      </c>
+      <c r="F357" s="1"/>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" t="s">
@@ -33239,13 +31818,9 @@
         <v>0.94211999999999996</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F358" s="1">
-        <f t="shared" si="11"/>
-        <v>59</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F358" s="1"/>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" t="s">
@@ -33261,13 +31836,9 @@
         <v>0.90630999999999995</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F359" s="1">
-        <f t="shared" si="11"/>
-        <v>51</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F359" s="1"/>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" t="s">
@@ -33283,13 +31854,9 @@
         <v>0.94371000000000005</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F360" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F360" s="1"/>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" t="s">
@@ -33305,13 +31872,9 @@
         <v>0.97718000000000005</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F361" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F361" s="1"/>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" t="s">
@@ -33327,13 +31890,9 @@
         <v>0.96455999999999997</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F362" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F362" s="1"/>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" t="s">
@@ -33349,13 +31908,9 @@
         <v>0.96458999999999995</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F363" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F363" s="1"/>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" t="s">
@@ -33371,13 +31926,9 @@
         <v>0.92825000000000002</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F364" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F364" s="1"/>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" t="s">
@@ -33393,13 +31944,9 @@
         <v>0.97767999999999999</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F365" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F365" s="1"/>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
@@ -33415,13 +31962,9 @@
         <v>0.95755999999999997</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F366" s="1">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F366" s="1"/>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" t="s">
@@ -33437,13 +31980,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F367" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F367" s="1"/>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" t="s">
@@ -33459,13 +31998,9 @@
         <v>0.85024</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F368" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F368" s="1"/>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" t="s">
@@ -33481,18 +32016,17 @@
         <v>0.85218000000000005</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F369" s="1">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F369" s="1"/>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" t="s">
         <v>742</v>
       </c>
+      <c r="B370" t="s">
+        <v>743</v>
+      </c>
       <c r="C370" t="s">
         <v>743</v>
       </c>
@@ -33500,18 +32034,17 @@
         <v>0.90549999999999997</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F370" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F370" s="1"/>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" t="s">
         <v>744</v>
       </c>
+      <c r="B371" t="s">
+        <v>745</v>
+      </c>
       <c r="C371" t="s">
         <v>745</v>
       </c>
@@ -33519,18 +32052,17 @@
         <v>0.86968000000000001</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F371" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F371" s="1"/>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" t="s">
         <v>746</v>
       </c>
+      <c r="B372" t="s">
+        <v>747</v>
+      </c>
       <c r="C372" t="s">
         <v>747</v>
       </c>
@@ -33538,13 +32070,9 @@
         <v>0.78402000000000005</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F372" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F372" s="1"/>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" t="s">
@@ -33560,13 +32088,9 @@
         <v>0.87694000000000005</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F373" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
+        <v>0.28571000000000002</v>
+      </c>
+      <c r="F373" s="1"/>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" t="s">
@@ -33582,13 +32106,9 @@
         <v>0.96843999999999997</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F374" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F374" s="1"/>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" t="s">
@@ -33604,13 +32124,9 @@
         <v>0.98345000000000005</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F375" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F375" s="1"/>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" t="s">
@@ -33626,13 +32142,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F376" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F376" s="1"/>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" t="s">
@@ -33648,13 +32160,9 @@
         <v>0.97628999999999999</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F377" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F377" s="1"/>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" t="s">
@@ -33670,13 +32178,9 @@
         <v>0.92047000000000001</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F378" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F378" s="1"/>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" t="s">
@@ -33692,13 +32196,9 @@
         <v>0.98477000000000003</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F379" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F379" s="1"/>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" t="s">
@@ -33714,13 +32214,9 @@
         <v>0.85068999999999995</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F380" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F380" s="1"/>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" t="s">
@@ -33736,13 +32232,9 @@
         <v>0.97087999999999997</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F381" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F381" s="1"/>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" t="s">
@@ -33758,13 +32250,9 @@
         <v>0.94825999999999999</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F382" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F382" s="1"/>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" t="s">
@@ -33780,13 +32268,9 @@
         <v>0.98295999999999994</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F383" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="F383" s="1"/>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" t="s">
@@ -33802,13 +32286,9 @@
         <v>0.95499000000000001</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F384" s="1">
-        <f t="shared" si="11"/>
-        <v>37</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F384" s="1"/>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" t="s">
@@ -33824,13 +32304,9 @@
         <v>0.97196000000000005</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
-        <v>9999</v>
-      </c>
-      <c r="F385" s="1">
-        <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
+        <v>0.57142999999999999</v>
+      </c>
+      <c r="F385" s="1"/>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" t="s">
@@ -33846,13 +32322,9 @@
         <v>0.88793</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E442" si="12">IF(F386 = 0,0,9999)</f>
-        <v>9999</v>
-      </c>
-      <c r="F386" s="1">
-        <f t="shared" ref="F386:F442" si="13">WER(B386,C386)</f>
-        <v>28</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="F386" s="1"/>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" t="s">
@@ -33868,13 +32340,9 @@
         <v>0.88414000000000004</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F387" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F387" s="1"/>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" t="s">
@@ -33890,13 +32358,9 @@
         <v>0.90981999999999996</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F388" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F388" s="1"/>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" t="s">
@@ -33912,13 +32376,9 @@
         <v>0.97097</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F389" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F389" s="1"/>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" t="s">
@@ -33934,13 +32394,9 @@
         <v>0.98402999999999996</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F390" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F390" s="1"/>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" t="s">
@@ -33956,13 +32412,9 @@
         <v>0.98311999999999999</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F391" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F391" s="1"/>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" t="s">
@@ -33978,13 +32430,9 @@
         <v>0.97682000000000002</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F392" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F392" s="1"/>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" t="s">
@@ -34000,13 +32448,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F393" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F393" s="1"/>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" t="s">
@@ -34022,13 +32466,9 @@
         <v>0.94399</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F394" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F394" s="1"/>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" t="s">
@@ -34044,13 +32484,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F395" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F395" s="1"/>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" t="s">
@@ -34066,13 +32502,9 @@
         <v>0.98726000000000003</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F396" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F396" s="1"/>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" t="s">
@@ -34088,13 +32520,9 @@
         <v>0.97102999999999995</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F397" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F397" s="1"/>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" t="s">
@@ -34110,13 +32538,9 @@
         <v>0.96750000000000003</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F398" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F398" s="1"/>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" t="s">
@@ -34132,13 +32556,9 @@
         <v>0.95013999999999998</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F399" s="1">
-        <f t="shared" si="13"/>
-        <v>39</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F399" s="1"/>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" t="s">
@@ -34154,13 +32574,9 @@
         <v>0.98507</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F400" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F400" s="1"/>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" t="s">
@@ -34176,13 +32592,9 @@
         <v>0.81903000000000004</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F401" s="1">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
+        <v>0.22222</v>
+      </c>
+      <c r="F401" s="1"/>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" t="s">
@@ -34198,13 +32610,9 @@
         <v>0.85067999999999999</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F402" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F402" s="1"/>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" t="s">
@@ -34220,13 +32628,9 @@
         <v>0.96452000000000004</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F403" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F403" s="1"/>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" t="s">
@@ -34242,13 +32646,9 @@
         <v>0.95420000000000005</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F404" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F404" s="1"/>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" t="s">
@@ -34264,13 +32664,9 @@
         <v>0.97506999999999999</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F405" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F405" s="1"/>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" t="s">
@@ -34286,13 +32682,9 @@
         <v>0.95740000000000003</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F406" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="F406" s="1"/>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" t="s">
@@ -34308,13 +32700,9 @@
         <v>0.97767999999999999</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F407" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F407" s="1"/>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" t="s">
@@ -34330,13 +32718,9 @@
         <v>0.96172999999999997</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F408" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F408" s="1"/>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" t="s">
@@ -34352,13 +32736,9 @@
         <v>0.97989000000000004</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F409" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F409" s="1"/>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" t="s">
@@ -34374,13 +32754,9 @@
         <v>0.98546999999999996</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F410" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F410" s="1"/>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" t="s">
@@ -34396,13 +32772,9 @@
         <v>0.98763000000000001</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F411" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F411" s="1"/>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" t="s">
@@ -34418,13 +32790,9 @@
         <v>0.88643000000000005</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F412" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
+        <v>7.6923000000000005E-2</v>
+      </c>
+      <c r="F412" s="1"/>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" t="s">
@@ -34440,13 +32808,9 @@
         <v>0.90019000000000005</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F413" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>7.6923000000000005E-2</v>
+      </c>
+      <c r="F413" s="1"/>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" t="s">
@@ -34462,13 +32826,9 @@
         <v>0.96555000000000002</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F414" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F414" s="1"/>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" t="s">
@@ -34484,13 +32844,9 @@
         <v>0.95121999999999995</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F415" s="1">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F415" s="1"/>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" t="s">
@@ -34506,13 +32862,9 @@
         <v>0.91532999999999998</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F416" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.16667000000000001</v>
+      </c>
+      <c r="F416" s="1"/>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" t="s">
@@ -34528,13 +32880,9 @@
         <v>0.96516999999999997</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F417" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>7.1429000000000006E-2</v>
+      </c>
+      <c r="F417" s="1"/>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" t="s">
@@ -34550,13 +32898,9 @@
         <v>0.97407999999999995</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F418" s="1">
-        <f t="shared" si="13"/>
-        <v>45</v>
-      </c>
+        <v>0.22222</v>
+      </c>
+      <c r="F418" s="1"/>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" t="s">
@@ -34572,13 +32916,9 @@
         <v>0.96613000000000004</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F419" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F419" s="1"/>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" t="s">
@@ -34594,13 +32934,9 @@
         <v>0.80893999999999999</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F420" s="1">
-        <f t="shared" si="13"/>
-        <v>35</v>
-      </c>
+        <v>0.42857000000000001</v>
+      </c>
+      <c r="F420" s="1"/>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" t="s">
@@ -34616,13 +32952,9 @@
         <v>0.97824999999999995</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F421" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>7.6923000000000005E-2</v>
+      </c>
+      <c r="F421" s="1"/>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" t="s">
@@ -34638,13 +32970,9 @@
         <v>0.94460999999999995</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F422" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>7.6923000000000005E-2</v>
+      </c>
+      <c r="F422" s="1"/>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" t="s">
@@ -34660,13 +32988,9 @@
         <v>0.96914999999999996</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F423" s="1">
-        <f t="shared" si="13"/>
-        <v>23</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F423" s="1"/>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" t="s">
@@ -34682,13 +33006,9 @@
         <v>0.97763999999999995</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F424" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F424" s="1"/>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" t="s">
@@ -34704,13 +33024,9 @@
         <v>0.95116999999999996</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F425" s="1">
-        <f t="shared" si="13"/>
-        <v>57</v>
-      </c>
+        <v>0.22222</v>
+      </c>
+      <c r="F425" s="1"/>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" t="s">
@@ -34726,13 +33042,9 @@
         <v>0.97211000000000003</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F426" s="1">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="F426" s="1"/>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" t="s">
@@ -34748,13 +33060,9 @@
         <v>0.98431000000000002</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F427" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F427" s="1"/>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" t="s">
@@ -34770,13 +33078,9 @@
         <v>0.98475000000000001</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F428" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F428" s="1"/>
     </row>
     <row r="429" spans="1:6">
       <c r="A429" t="s">
@@ -34792,13 +33096,9 @@
         <v>0.97502</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F429" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F429" s="1"/>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" t="s">
@@ -34814,13 +33114,9 @@
         <v>0.96136999999999995</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F430" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F430" s="1"/>
     </row>
     <row r="431" spans="1:6">
       <c r="A431" t="s">
@@ -34836,13 +33132,9 @@
         <v>0.96226</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F431" s="1">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F431" s="1"/>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" t="s">
@@ -34858,13 +33150,9 @@
         <v>0.97185999999999995</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F432" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F432" s="1"/>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" t="s">
@@ -34880,13 +33168,9 @@
         <v>0.97536999999999996</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F433" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F433" s="1"/>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" t="s">
@@ -34902,13 +33186,9 @@
         <v>0.90710000000000002</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F434" s="1">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F434" s="1"/>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" t="s">
@@ -34924,13 +33204,9 @@
         <v>0.94977</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F435" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F435" s="1"/>
     </row>
     <row r="436" spans="1:6">
       <c r="A436" t="s">
@@ -34946,13 +33222,9 @@
         <v>0.97418000000000005</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F436" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F436" s="1"/>
     </row>
     <row r="437" spans="1:6">
       <c r="A437" t="s">
@@ -34968,13 +33240,9 @@
         <v>0.84533000000000003</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F437" s="1">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="F437" s="1"/>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" t="s">
@@ -34990,13 +33258,9 @@
         <v>0.98933000000000004</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F438" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="F438" s="1"/>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" t="s">
@@ -35012,13 +33276,9 @@
         <v>0.97816000000000003</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F439" s="1">
-        <f t="shared" si="13"/>
-        <v>48</v>
-      </c>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="F439" s="1"/>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" t="s">
@@ -35034,13 +33294,9 @@
         <v>0.87380000000000002</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F440" s="1">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="F440" s="1"/>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" t="s">
@@ -35056,13 +33312,9 @@
         <v>0.91795000000000004</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F441" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <v>9.0909000000000004E-2</v>
+      </c>
+      <c r="F441" s="1"/>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" t="s">
@@ -35078,13 +33330,9 @@
         <v>0.96811999999999998</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
-        <v>9999</v>
-      </c>
-      <c r="F442" s="1">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
+        <v>0.11111</v>
+      </c>
+      <c r="F442" s="1"/>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" t="s">
@@ -35100,13 +33348,9 @@
         <v>0.98150999999999999</v>
       </c>
       <c r="E443">
-        <f>IF(F443 = 0,0,9999)</f>
-        <v>9999</v>
-      </c>
-      <c r="F443" s="1">
-        <f t="shared" ref="F386:F443" si="14">WER(B443,C443)</f>
-        <v>2</v>
-      </c>
+        <v>0.125</v>
+      </c>
+      <c r="F443" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
